--- a/PhoneType/iPhone123.xlsx
+++ b/PhoneType/iPhone123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>手机型号</t>
   </si>
@@ -25,181 +25,109 @@
     <t>总数量</t>
   </si>
   <si>
+    <t>手机系统版本号</t>
+  </si>
+  <si>
+    <t>iPhone11,6</t>
+  </si>
+  <si>
+    <t>iPhone11,8</t>
+  </si>
+  <si>
+    <t>iPhone12,5</t>
+  </si>
+  <si>
+    <t>iPhone11,2</t>
+  </si>
+  <si>
+    <t>iPhone10,6</t>
+  </si>
+  <si>
     <t>iPhone10,3</t>
   </si>
   <si>
-    <t>iPhone11,6</t>
-  </si>
-  <si>
-    <t>iPhone9,2</t>
-  </si>
-  <si>
-    <t>iPhone9,1</t>
+    <t>iPhone12,1</t>
+  </si>
+  <si>
+    <t>iPhone12,3</t>
+  </si>
+  <si>
+    <t>iPhone9,3</t>
+  </si>
+  <si>
+    <t>iPhone10,1</t>
+  </si>
+  <si>
+    <t>iPhone10,4</t>
+  </si>
+  <si>
+    <t>iPhone8,1</t>
+  </si>
+  <si>
+    <t>iPhone9,4</t>
   </si>
   <si>
     <t>iPhone10,2</t>
   </si>
   <si>
-    <t>iPhone11,8</t>
-  </si>
-  <si>
-    <t>iPhone8,2</t>
-  </si>
-  <si>
-    <t>iPhone10,1</t>
-  </si>
-  <si>
-    <t>iPhone8,1</t>
-  </si>
-  <si>
-    <t>iPhone12,5</t>
-  </si>
-  <si>
-    <t>iPhone11,2</t>
-  </si>
-  <si>
-    <t>iPhone12,1</t>
-  </si>
-  <si>
-    <t>iPhone7,2</t>
-  </si>
-  <si>
-    <t>iPhone7,1</t>
-  </si>
-  <si>
-    <t>iPhone12,3</t>
-  </si>
-  <si>
-    <t>iPhone10,6</t>
-  </si>
-  <si>
-    <t>iPhone8,4</t>
-  </si>
-  <si>
-    <t>iPhone9,4</t>
-  </si>
-  <si>
-    <t>iPhone9,3</t>
-  </si>
-  <si>
-    <t>iPhone6,2</t>
-  </si>
-  <si>
-    <t>iPhone10,5</t>
-  </si>
-  <si>
-    <t>iPad11,1</t>
-  </si>
-  <si>
-    <t>iPad5,1</t>
-  </si>
-  <si>
-    <t>iPad7,5</t>
-  </si>
-  <si>
-    <t>iPhone10,4</t>
-  </si>
-  <si>
-    <t>iPad4,4</t>
-  </si>
-  <si>
-    <t>iPad11,3</t>
-  </si>
-  <si>
-    <t>iPad6,3</t>
-  </si>
-  <si>
-    <t>iPad4,1</t>
-  </si>
-  <si>
-    <t>iPad7,1</t>
-  </si>
-  <si>
-    <t>iPad6,11</t>
-  </si>
-  <si>
-    <t>iPad8,7</t>
+    <t>SM-G975F</t>
+  </si>
+  <si>
+    <t>iPhone XS Max</t>
+  </si>
+  <si>
+    <t>iPhone XR</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone XS</t>
   </si>
   <si>
     <t>iPhone X</t>
   </si>
   <si>
-    <t>iPhone XS Max</t>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+  </si>
+  <si>
+    <t>iPhone 8</t>
+  </si>
+  <si>
+    <t>iPhone 6s</t>
   </si>
   <si>
     <t>iPhone 7 Plus</t>
   </si>
   <si>
-    <t>iPhone 7</t>
-  </si>
-  <si>
     <t>iPhone 8 Plus</t>
   </si>
   <si>
-    <t>iPhone XR</t>
-  </si>
-  <si>
-    <t>iPhone 6s Plus</t>
-  </si>
-  <si>
-    <t>iPhone 8</t>
-  </si>
-  <si>
-    <t>iPhone 6s</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro Max</t>
-  </si>
-  <si>
-    <t>iPhone XS</t>
-  </si>
-  <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
-    <t>iPhone 6</t>
-  </si>
-  <si>
-    <t>iPhone 6 Plus</t>
-  </si>
-  <si>
-    <t>iPhone 11 Pro</t>
-  </si>
-  <si>
-    <t>iPhone SE</t>
-  </si>
-  <si>
-    <t>iPhone 5s</t>
-  </si>
-  <si>
-    <t>iPad Mini 5</t>
-  </si>
-  <si>
-    <t>iPad Mini 4</t>
-  </si>
-  <si>
-    <t>iPad 6th generation</t>
-  </si>
-  <si>
-    <t>iPad Mini 2</t>
-  </si>
-  <si>
-    <t>iPad Air 3</t>
-  </si>
-  <si>
-    <t>iPad Pro 9.7</t>
-  </si>
-  <si>
-    <t>iPad Air</t>
-  </si>
-  <si>
-    <t>iPad Pro 12.9 inch 2nd gen</t>
-  </si>
-  <si>
-    <t>iPad 5</t>
-  </si>
-  <si>
-    <t>iPad Pro 12.9-inch</t>
+    <t>三星Galaxy S10 plus</t>
+  </si>
+  <si>
+    <t>13.4.1</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>12.3.1</t>
+  </si>
+  <si>
+    <t>12.1.4</t>
+  </si>
+  <si>
+    <t>12.3.2</t>
+  </si>
+  <si>
+    <t>android10</t>
   </si>
 </sst>
 </file>
@@ -557,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,453 +501,263 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.057</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.051</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.046</v>
+      </c>
+      <c r="E5">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.043</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.036</v>
+      </c>
+      <c r="E7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.032</v>
+      </c>
+      <c r="E8">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.031</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.026</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.022</v>
+      </c>
+      <c r="E11">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.018</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.017</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D16">
+        <v>0.016</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PhoneType/iPhone123.xlsx
+++ b/PhoneType/iPhone123.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/PhoneType/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22960" yWindow="7120" windowWidth="20280" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>手机型号</t>
   </si>
@@ -46,33 +59,15 @@
     <t>iPhone10,3</t>
   </si>
   <si>
+    <t>iPhone12,3</t>
+  </si>
+  <si>
     <t>iPhone12,1</t>
   </si>
   <si>
-    <t>iPhone12,3</t>
-  </si>
-  <si>
     <t>iPhone9,3</t>
   </si>
   <si>
-    <t>iPhone10,1</t>
-  </si>
-  <si>
-    <t>iPhone10,4</t>
-  </si>
-  <si>
-    <t>iPhone8,1</t>
-  </si>
-  <si>
-    <t>iPhone9,4</t>
-  </si>
-  <si>
-    <t>iPhone10,2</t>
-  </si>
-  <si>
-    <t>SM-G975F</t>
-  </si>
-  <si>
     <t>iPhone XS Max</t>
   </si>
   <si>
@@ -88,57 +83,43 @@
     <t>iPhone X</t>
   </si>
   <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
     <t>iPhone 11</t>
   </si>
   <si>
-    <t>iPhone 11 Pro</t>
-  </si>
-  <si>
     <t>iPhone 7</t>
   </si>
   <si>
-    <t>iPhone 8</t>
-  </si>
-  <si>
-    <t>iPhone 6s</t>
-  </si>
-  <si>
-    <t>iPhone 7 Plus</t>
-  </si>
-  <si>
-    <t>iPhone 8 Plus</t>
-  </si>
-  <si>
-    <t>三星Galaxy S10 plus</t>
+    <t>12.3.1</t>
   </si>
   <si>
     <t>13.4.1</t>
   </si>
   <si>
-    <t>13.1.3</t>
-  </si>
-  <si>
-    <t>12.3.1</t>
-  </si>
-  <si>
-    <t>12.1.4</t>
-  </si>
-  <si>
-    <t>12.3.2</t>
-  </si>
-  <si>
-    <t>android10</t>
+    <t>国际IOS手机使用</t>
+    <rPh sb="0" eb="1">
+      <t>guo'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,17 +127,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,22 +185,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,12 +271,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -275,14 +303,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -309,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,283 +514,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>0.06</v>
-      </c>
-      <c r="E2">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>0.057</v>
-      </c>
-      <c r="E3">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>0.051</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>0.046</v>
-      </c>
-      <c r="E5">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0.043</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>0.036</v>
-      </c>
-      <c r="E7">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>0.032</v>
-      </c>
-      <c r="E8">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>0.031</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>0.026</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>0.022</v>
-      </c>
-      <c r="E11">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>0.018</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0.017</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>0.016</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
+      <c r="F11" s="8">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>